--- a/controllers/CL_TEST_8_action 5/data/Curriculum Yes new model_1_1/Curriculum Yes new model_1_1_Test_heterogeineous_pipe_1/Curriculum Yes new model_1_1_Test_heterogeineous_pipe_1_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/Curriculum Yes new model_1_1/Curriculum Yes new model_1_1_Test_heterogeineous_pipe_1/Curriculum Yes new model_1_1_Test_heterogeineous_pipe_1_Test_Result.xlsx
@@ -445,10 +445,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
